--- a/FFE-AddIn/_Doc/Images/Sources/My Asset Report.xlsx
+++ b/FFE-AddIn/_Doc/Images/Sources/My Asset Report.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0A7C92-D5EA-46CC-AAAB-421D92A02282}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_BA44CD041E69B2740FBBFDDB6B059EF9991B4C73" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{2756EA1D-297B-48D9-8FD0-38F2A8D9C315}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
